--- a/LaTeX/Content/TimeResults.xlsx
+++ b/LaTeX/Content/TimeResults.xlsx
@@ -24,12 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Flyweight</t>
   </si>
   <si>
     <t>No-Flyweight</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
 </sst>
 </file>
@@ -47,18 +83,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,9 +133,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,7 +220,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -172,7 +243,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -216,7 +287,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -239,7 +310,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1033,16 +1104,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1327,113 +1398,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="D3" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
         <v>33</v>
       </c>
-      <c r="B3">
+      <c r="D4" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
         <v>36</v>
       </c>
-      <c r="B4">
+      <c r="D5" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
         <v>35</v>
       </c>
-      <c r="B5">
+      <c r="D6" s="4">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="D7" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="D8" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
         <v>34</v>
       </c>
-      <c r="B8">
+      <c r="D9" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="D10" s="4">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="D11" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
         <v>35</v>
       </c>
-      <c r="B11">
+      <c r="D12" s="4">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>AVERAGE(A2:A11)</f>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <f>AVERAGE(C3:C12)</f>
         <v>33.5</v>
       </c>
-      <c r="B12">
-        <f>AVERAGE(B2:B11)</f>
+      <c r="D13" s="2">
+        <f>AVERAGE(D3:D12)</f>
         <v>101.3</v>
       </c>
     </row>
